--- a/Files/Vaccine_December 22, 2005.xlsx
+++ b/Files/Vaccine_December 22, 2005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="146">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP </t>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">$21.80</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B^</t>
+    <t xml:space="preserve">Hepatitis B-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">$27.41</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only^</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only</t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">$78.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">$82.00</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">$40.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">Wyeth/Lederle</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids^</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">DECAVAC</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">$17.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis/</t>
   </si>
   <si>
     <t xml:space="preserve">BOOSTRIX</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose TL syringes, No Needle </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$28.75</t>
@@ -317,6 +317,9 @@
     <t xml:space="preserve">$35.25</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose TL syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADACEL</t>
   </si>
   <si>
@@ -356,7 +359,7 @@
     <t xml:space="preserve">$54.98</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult^</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B-Adult</t>
@@ -1461,7 +1464,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>98</v>
@@ -1484,7 +1487,7 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1493,10 +1496,10 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32" s="1">
         <v>38807</v>
@@ -1510,10 +1513,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1522,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G33" s="1">
         <v>38807</v>
@@ -1584,7 +1587,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1596,10 +1599,10 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1">
         <v>38898</v>
@@ -1613,7 +1616,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
@@ -1625,10 +1628,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G3" s="1">
         <v>38898</v>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -1654,10 +1657,10 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1">
         <v>38898</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -1683,10 +1686,10 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1">
         <v>38898</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1770,10 +1773,10 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1">
         <v>38898</v>
@@ -1787,7 +1790,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
@@ -1799,7 +1802,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1816,10 +1819,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1831,7 +1834,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G10" s="1">
         <v>38898</v>
@@ -1845,10 +1848,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1860,7 +1863,7 @@
         <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1">
         <v>38898</v>
@@ -1874,22 +1877,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1">
         <v>38898</v>
@@ -1906,25 +1909,25 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G13" s="1">
         <v>38898</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -1977,10 +1980,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1989,10 +1992,10 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1">
         <v>38776</v>
@@ -2006,22 +2009,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
         <v>38776</v>
@@ -2035,28 +2038,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G4" s="1">
         <v>38776</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>

--- a/Files/Vaccine_December 22, 2005.xlsx
+++ b/Files/Vaccine_December 22, 2005.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -292,8 +292,7 @@
     <t xml:space="preserve">DECAVAC</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$15.90</t>
@@ -428,9 +427,7 @@
     <t xml:space="preserve">Influenza </t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-Preservative-free</t>
+    <t xml:space="preserve">Fluzone Pediatric dose Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
